--- a/plottar/tabell_alla_faser.xlsx
+++ b/plottar/tabell_alla_faser.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-3.294, 0.231</t>
+          <t>-3.13, 0.892</t>
         </is>
       </c>
       <c r="E6">
@@ -500,7 +500,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.29, 2.27</t>
+          <t>-0.819, 1.87</t>
         </is>
       </c>
       <c r="E7">
@@ -521,7 +521,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-2.412, 0.484</t>
+          <t>-1.785, 0.918</t>
         </is>
       </c>
       <c r="E8">
@@ -538,11 +538,11 @@
         <v>-0.115</v>
       </c>
       <c r="C9">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1.627, 0.703</t>
+          <t>-0.817, 0.586</t>
         </is>
       </c>
       <c r="E9">
@@ -563,7 +563,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-1.434, 1.027</t>
+          <t>-0.311, 0.289</t>
         </is>
       </c>
       <c r="E10">
